--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.9034369512997</v>
+        <v>11.98327633333333</v>
       </c>
       <c r="H2">
-        <v>10.9034369512997</v>
+        <v>35.949829</v>
       </c>
       <c r="I2">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="J2">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N2">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q2">
-        <v>15.78939145822072</v>
+        <v>45.27807864564367</v>
       </c>
       <c r="R2">
-        <v>15.78939145822072</v>
+        <v>407.502707810793</v>
       </c>
       <c r="S2">
-        <v>0.007090669140949764</v>
+        <v>0.01422746735422646</v>
       </c>
       <c r="T2">
-        <v>0.007090669140949764</v>
+        <v>0.01422746735422646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.9034369512997</v>
+        <v>11.98327633333333</v>
       </c>
       <c r="H3">
-        <v>10.9034369512997</v>
+        <v>35.949829</v>
       </c>
       <c r="I3">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="J3">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q3">
-        <v>45.89307541218331</v>
+        <v>51.92836960712111</v>
       </c>
       <c r="R3">
-        <v>45.89307541218331</v>
+        <v>467.35532646409</v>
       </c>
       <c r="S3">
-        <v>0.02060957285589516</v>
+        <v>0.01631714961064507</v>
       </c>
       <c r="T3">
-        <v>0.02060957285589516</v>
+        <v>0.01631714961064507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.9034369512997</v>
+        <v>11.98327633333333</v>
       </c>
       <c r="H4">
-        <v>10.9034369512997</v>
+        <v>35.949829</v>
       </c>
       <c r="I4">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="J4">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N4">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q4">
-        <v>2.522014582675789</v>
+        <v>3.486957658280445</v>
       </c>
       <c r="R4">
-        <v>2.522014582675789</v>
+        <v>31.382618924524</v>
       </c>
       <c r="S4">
-        <v>0.001132581393128605</v>
+        <v>0.001095686427796957</v>
       </c>
       <c r="T4">
-        <v>0.001132581393128605</v>
+        <v>0.001095686427796957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.9034369512997</v>
+        <v>11.98327633333333</v>
       </c>
       <c r="H5">
-        <v>10.9034369512997</v>
+        <v>35.949829</v>
       </c>
       <c r="I5">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="J5">
-        <v>0.03070592740367616</v>
+        <v>0.03345300399843466</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N5">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O5">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P5">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q5">
-        <v>4.170998805107669</v>
+        <v>5.768813137673778</v>
       </c>
       <c r="R5">
-        <v>4.170998805107669</v>
+        <v>51.919318239064</v>
       </c>
       <c r="S5">
-        <v>0.001873104013702633</v>
+        <v>0.001812700605766167</v>
       </c>
       <c r="T5">
-        <v>0.001873104013702633</v>
+        <v>0.001812700605766167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>330.670138059846</v>
+        <v>332.3726806666667</v>
       </c>
       <c r="H6">
-        <v>330.670138059846</v>
+        <v>997.1180420000001</v>
       </c>
       <c r="I6">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470024</v>
       </c>
       <c r="J6">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470025</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N6">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q6">
-        <v>478.8471998958494</v>
+        <v>1255.849899165479</v>
       </c>
       <c r="R6">
-        <v>478.8471998958494</v>
+        <v>11302.64909248932</v>
       </c>
       <c r="S6">
-        <v>0.2150397672079959</v>
+        <v>0.3946184108654651</v>
       </c>
       <c r="T6">
-        <v>0.2150397672079959</v>
+        <v>0.3946184108654652</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>330.670138059846</v>
+        <v>332.3726806666667</v>
       </c>
       <c r="H7">
-        <v>330.670138059846</v>
+        <v>997.1180420000001</v>
       </c>
       <c r="I7">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470024</v>
       </c>
       <c r="J7">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470025</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q7">
-        <v>1391.806056229696</v>
+        <v>1440.304882309869</v>
       </c>
       <c r="R7">
-        <v>1391.806056229696</v>
+        <v>12962.74394078882</v>
       </c>
       <c r="S7">
-        <v>0.6250295509619979</v>
+        <v>0.4525786275864475</v>
       </c>
       <c r="T7">
-        <v>0.6250295509619979</v>
+        <v>0.4525786275864476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.670138059846</v>
+        <v>332.3726806666667</v>
       </c>
       <c r="H8">
-        <v>330.670138059846</v>
+        <v>997.1180420000001</v>
       </c>
       <c r="I8">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470024</v>
       </c>
       <c r="J8">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470025</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N8">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q8">
-        <v>76.4855076401336</v>
+        <v>96.71557527468357</v>
       </c>
       <c r="R8">
-        <v>76.4855076401336</v>
+        <v>870.4401774721521</v>
       </c>
       <c r="S8">
-        <v>0.03434796269310353</v>
+        <v>0.03039037280346663</v>
       </c>
       <c r="T8">
-        <v>0.03434796269310353</v>
+        <v>0.03039037280346664</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.670138059846</v>
+        <v>332.3726806666667</v>
       </c>
       <c r="H9">
-        <v>330.670138059846</v>
+        <v>997.1180420000001</v>
       </c>
       <c r="I9">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470024</v>
       </c>
       <c r="J9">
-        <v>0.9312231821195512</v>
+        <v>0.9278651602470025</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N9">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O9">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P9">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q9">
-        <v>126.4944949828871</v>
+        <v>160.0059811272302</v>
       </c>
       <c r="R9">
-        <v>126.4944949828871</v>
+        <v>1440.053830145072</v>
       </c>
       <c r="S9">
-        <v>0.05680590125645388</v>
+        <v>0.05027774899162313</v>
       </c>
       <c r="T9">
-        <v>0.05680590125645388</v>
+        <v>0.05027774899162314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0665280973946708</v>
+        <v>0.08615933333333332</v>
       </c>
       <c r="H10">
-        <v>0.0665280973946708</v>
+        <v>0.258478</v>
       </c>
       <c r="I10">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="J10">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N10">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q10">
-        <v>0.09634009692786621</v>
+        <v>0.3255477852806666</v>
       </c>
       <c r="R10">
-        <v>0.09634009692786621</v>
+        <v>2.929930067526</v>
       </c>
       <c r="S10">
-        <v>4.326422295185209E-05</v>
+        <v>0.0001022949874611573</v>
       </c>
       <c r="T10">
-        <v>4.326422295185209E-05</v>
+        <v>0.0001022949874611573</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0665280973946708</v>
+        <v>0.08615933333333332</v>
       </c>
       <c r="H11">
-        <v>0.0665280973946708</v>
+        <v>0.258478</v>
       </c>
       <c r="I11">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="J11">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q11">
-        <v>0.2800198693677741</v>
+        <v>0.3733631422644444</v>
       </c>
       <c r="R11">
-        <v>0.2800198693677741</v>
+        <v>3.36026828038</v>
       </c>
       <c r="S11">
-        <v>0.0001257507771488621</v>
+        <v>0.0001173197290329341</v>
       </c>
       <c r="T11">
-        <v>0.0001257507771488621</v>
+        <v>0.0001173197290329341</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0665280973946708</v>
+        <v>0.08615933333333332</v>
       </c>
       <c r="H12">
-        <v>0.0665280973946708</v>
+        <v>0.258478</v>
       </c>
       <c r="I12">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="J12">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N12">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q12">
-        <v>0.01538825166197112</v>
+        <v>0.02507110232977778</v>
       </c>
       <c r="R12">
-        <v>0.01538825166197112</v>
+        <v>0.225639920968</v>
       </c>
       <c r="S12">
-        <v>6.910526063111703E-06</v>
+        <v>7.877946692989882E-06</v>
       </c>
       <c r="T12">
-        <v>6.910526063111703E-06</v>
+        <v>7.877946692989884E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0665280973946708</v>
+        <v>0.08615933333333332</v>
       </c>
       <c r="H13">
-        <v>0.0665280973946708</v>
+        <v>0.258478</v>
       </c>
       <c r="I13">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="J13">
-        <v>0.000187354403756327</v>
+        <v>0.0002405259164795302</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N13">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O13">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P13">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q13">
-        <v>0.02544964638018856</v>
+        <v>0.0414775625831111</v>
       </c>
       <c r="R13">
-        <v>0.02544964638018856</v>
+        <v>0.373298063248</v>
       </c>
       <c r="S13">
-        <v>1.142887759250109E-05</v>
+        <v>1.303325329244896E-05</v>
       </c>
       <c r="T13">
-        <v>1.142887759250109E-05</v>
+        <v>1.303325329244896E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.4521501869691</v>
+        <v>13.77014866666667</v>
       </c>
       <c r="H14">
-        <v>13.4521501869691</v>
+        <v>41.310446</v>
       </c>
       <c r="I14">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="J14">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N14">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O14">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P14">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q14">
-        <v>19.48021217580514</v>
+        <v>52.02966675793133</v>
       </c>
       <c r="R14">
-        <v>19.48021217580514</v>
+        <v>468.267000821382</v>
       </c>
       <c r="S14">
-        <v>0.008748135715022724</v>
+        <v>0.01634897962528654</v>
       </c>
       <c r="T14">
-        <v>0.008748135715022724</v>
+        <v>0.01634897962528654</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.4521501869691</v>
+        <v>13.77014866666667</v>
       </c>
       <c r="H15">
-        <v>13.4521501869691</v>
+        <v>41.310446</v>
       </c>
       <c r="I15">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="J15">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P15">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q15">
-        <v>56.6207284679166</v>
+        <v>59.67160813262888</v>
       </c>
       <c r="R15">
-        <v>56.6207284679166</v>
+        <v>537.04447319366</v>
       </c>
       <c r="S15">
-        <v>0.02542712638089182</v>
+        <v>0.01875026242446032</v>
       </c>
       <c r="T15">
-        <v>0.02542712638089182</v>
+        <v>0.01875026242446032</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.4521501869691</v>
+        <v>13.77014866666667</v>
       </c>
       <c r="H16">
-        <v>13.4521501869691</v>
+        <v>41.310446</v>
       </c>
       <c r="I16">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="J16">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N16">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O16">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P16">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q16">
-        <v>3.111543551947338</v>
+        <v>4.006911299819556</v>
       </c>
       <c r="R16">
-        <v>3.111543551947338</v>
+        <v>36.062201698376</v>
       </c>
       <c r="S16">
-        <v>0.001397325913597967</v>
+        <v>0.001259068436971956</v>
       </c>
       <c r="T16">
-        <v>0.001397325913597967</v>
+        <v>0.001259068436971956</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.4521501869691</v>
+        <v>13.77014866666667</v>
       </c>
       <c r="H17">
-        <v>13.4521501869691</v>
+        <v>41.310446</v>
       </c>
       <c r="I17">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="J17">
-        <v>0.03788353607301637</v>
+        <v>0.03844130983808348</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N17">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O17">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P17">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q17">
-        <v>5.145983106665169</v>
+        <v>6.629023008926222</v>
       </c>
       <c r="R17">
-        <v>5.145983106665169</v>
+        <v>59.661207080336</v>
       </c>
       <c r="S17">
-        <v>0.002310948063503857</v>
+        <v>0.002082999351364662</v>
       </c>
       <c r="T17">
-        <v>0.002310948063503857</v>
+        <v>0.002082999351364662</v>
       </c>
     </row>
   </sheetData>
